--- a/code list.xlsx
+++ b/code list.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -426,7 +426,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -436,7 +436,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A.P.10</t>
+          <t>ACS10</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A.P.20</t>
+          <t>ACS20</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A.P.3</t>
+          <t>ACS3</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A.P.4</t>
+          <t>ACS4</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A.P.5</t>
+          <t>ACS5</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A.P.6</t>
+          <t>ACS6</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A.P.7</t>
+          <t>ACS7</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>konsumen</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A.P.8</t>
+          <t>ACS8</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A.PO.2</t>
+          <t>APO2</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A.PO.3</t>
+          <t>APO3</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>layanan</t>
+          <t>service</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A.S.1</t>
+          <t>AS1</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>layanan</t>
+          <t>service</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A.S.2</t>
+          <t>AS2</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>layanan</t>
+          <t>service</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A.S.3</t>
+          <t>AS3</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>B.NF.1</t>
+          <t>BNF1</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>B.NF.2</t>
+          <t>BNF2</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>B.NF.3</t>
+          <t>BNF3</t>
         </is>
       </c>
     </row>

--- a/code list.xlsx
+++ b/code list.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,7 +416,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -436,7 +436,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ACS10</t>
+          <t>ACS1</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ACS20</t>
+          <t>ACS2</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>putus</t>
+          <t>koneksi lambat</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>APO2</t>
+          <t>APO1</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>tidak bisa browsing / GGN</t>
+          <t>putus</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>APO3</t>
+          <t>APO2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>gangguan belum diselesaikan</t>
+          <t>tidak bisa browsing / GGN</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>AS1</t>
+          <t>APO3</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>internet belum aktif</t>
+          <t>gangguan belum diselesaikan</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>AS2</t>
+          <t>AS1</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -875,49 +875,49 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>tidak merasa pasang</t>
+          <t>internet belum aktif</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>AS3</t>
+          <t>AS2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NF</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>not contacted</t>
+          <t>contacted</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>service</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>alamat tidak ada</t>
+          <t>tidak merasa pasang</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BNF1</t>
+          <t>AS3</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>bukan pelanggan yang tersedia</t>
+          <t>alamat tidak ada</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BNF2</t>
+          <t>BNF1</t>
         </is>
       </c>
     </row>
@@ -971,27 +971,101 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>not contacted</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>bukan pelanggan yang bersangkutan</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BNF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NF</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>not contacted</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>not found</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>tidak bertemu penghuni</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>BNF3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>not contacted</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>rumah tidak berpenghuni</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BNF4</t>
         </is>
       </c>
     </row>

--- a/code list.xlsx
+++ b/code list.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>PD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>APO1</t>
+          <t>APD1</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>PD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>APO2</t>
+          <t>APD2</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PO</t>
+          <t>PD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>APO3</t>
+          <t>APD3</t>
         </is>
       </c>
     </row>
